--- a/2022/SAMSUNG/SEPTEMBER/25.09.2022/SAMSUNG Bank Statement Sep-2022.xlsx
+++ b/2022/SAMSUNG/SEPTEMBER/25.09.2022/SAMSUNG Bank Statement Sep-2022.xlsx
@@ -3823,6 +3823,66 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3866,66 +3926,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10033,11 +10033,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -10052,6 +10047,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -31380,8 +31380,8 @@
   </sheetPr>
   <dimension ref="A1:R215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -31407,13 +31407,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="451" t="s">
+      <c r="A1" s="471" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="452"/>
-      <c r="C1" s="452"/>
-      <c r="D1" s="452"/>
-      <c r="E1" s="453"/>
+      <c r="B1" s="472"/>
+      <c r="C1" s="472"/>
+      <c r="D1" s="472"/>
+      <c r="E1" s="473"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -31422,13 +31422,13 @@
       <c r="K1" s="466"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="460" t="s">
+      <c r="A2" s="480" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="461"/>
-      <c r="C2" s="461"/>
-      <c r="D2" s="461"/>
-      <c r="E2" s="462"/>
+      <c r="B2" s="481"/>
+      <c r="C2" s="481"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="482"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -31449,13 +31449,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="454" t="s">
+      <c r="A3" s="474" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="455"/>
-      <c r="C3" s="455"/>
-      <c r="D3" s="455"/>
-      <c r="E3" s="456"/>
+      <c r="B3" s="475"/>
+      <c r="C3" s="475"/>
+      <c r="D3" s="475"/>
+      <c r="E3" s="476"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -31482,13 +31482,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="463" t="s">
+      <c r="A4" s="483" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="464"/>
-      <c r="C4" s="464"/>
-      <c r="D4" s="464"/>
-      <c r="E4" s="465"/>
+      <c r="B4" s="484"/>
+      <c r="C4" s="484"/>
+      <c r="D4" s="484"/>
+      <c r="E4" s="485"/>
       <c r="F4" s="5"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -31960,11 +31960,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="265"/>
-      <c r="I17" s="467" t="s">
+      <c r="I17" s="457" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="467"/>
-      <c r="K17" s="467"/>
+      <c r="J17" s="457"/>
+      <c r="K17" s="457"/>
       <c r="L17" s="293">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -31987,11 +31987,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="265"/>
-      <c r="I18" s="468" t="s">
+      <c r="I18" s="467" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="468"/>
-      <c r="K18" s="468"/>
+      <c r="J18" s="467"/>
+      <c r="K18" s="467"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -32003,21 +32003,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="457" t="s">
+      <c r="A19" s="477" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="458"/>
-      <c r="C19" s="458"/>
-      <c r="D19" s="458"/>
-      <c r="E19" s="459"/>
+      <c r="B19" s="478"/>
+      <c r="C19" s="478"/>
+      <c r="D19" s="478"/>
+      <c r="E19" s="479"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="475" t="s">
+      <c r="I19" s="462" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="475"/>
-      <c r="K19" s="475"/>
+      <c r="J19" s="462"/>
+      <c r="K19" s="462"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -32045,11 +32045,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="469" t="s">
+      <c r="I20" s="459" t="s">
         <v>136</v>
       </c>
-      <c r="J20" s="469"/>
-      <c r="K20" s="469"/>
+      <c r="J20" s="459"/>
+      <c r="K20" s="459"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -32076,11 +32076,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="470" t="s">
+      <c r="I21" s="468" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="471"/>
-      <c r="K21" s="472"/>
+      <c r="J21" s="469"/>
+      <c r="K21" s="470"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -32105,11 +32105,11 @@
       <c r="E22" s="234">
         <v>351819</v>
       </c>
-      <c r="I22" s="475" t="s">
+      <c r="I22" s="462" t="s">
         <v>156</v>
       </c>
-      <c r="J22" s="475"/>
-      <c r="K22" s="475"/>
+      <c r="J22" s="462"/>
+      <c r="K22" s="462"/>
       <c r="L22" s="318">
         <v>20000</v>
       </c>
@@ -32134,11 +32134,11 @@
       <c r="E23" s="234">
         <v>517589</v>
       </c>
-      <c r="I23" s="476" t="s">
+      <c r="I23" s="454" t="s">
         <v>173</v>
       </c>
-      <c r="J23" s="477"/>
-      <c r="K23" s="478"/>
+      <c r="J23" s="455"/>
+      <c r="K23" s="456"/>
       <c r="L23" s="318">
         <v>40000</v>
       </c>
@@ -32163,11 +32163,11 @@
       <c r="E24" s="286">
         <v>369370</v>
       </c>
-      <c r="I24" s="475" t="s">
+      <c r="I24" s="462" t="s">
         <v>188</v>
       </c>
-      <c r="J24" s="475"/>
-      <c r="K24" s="475"/>
+      <c r="J24" s="462"/>
+      <c r="K24" s="462"/>
       <c r="L24" s="305">
         <v>30000</v>
       </c>
@@ -32192,11 +32192,11 @@
       <c r="E25" s="234">
         <v>69599</v>
       </c>
-      <c r="I25" s="475" t="s">
+      <c r="I25" s="462" t="s">
         <v>215</v>
       </c>
-      <c r="J25" s="475"/>
-      <c r="K25" s="475"/>
+      <c r="J25" s="462"/>
+      <c r="K25" s="462"/>
       <c r="L25" s="305">
         <v>20000</v>
       </c>
@@ -32221,11 +32221,11 @@
       <c r="E26" s="329">
         <v>90252</v>
       </c>
-      <c r="I26" s="467" t="s">
+      <c r="I26" s="457" t="s">
         <v>157</v>
       </c>
-      <c r="J26" s="467"/>
-      <c r="K26" s="467"/>
+      <c r="J26" s="457"/>
+      <c r="K26" s="457"/>
       <c r="L26" s="293">
         <f>L17-L18-L19-L20-L21-L22-L23-L24-L25</f>
         <v>78150</v>
@@ -32277,13 +32277,13 @@
       <c r="E28" s="234">
         <v>70000</v>
       </c>
-      <c r="I28" s="479" t="s">
+      <c r="I28" s="463" t="s">
         <v>190</v>
       </c>
-      <c r="J28" s="480"/>
-      <c r="K28" s="480"/>
-      <c r="L28" s="480"/>
-      <c r="M28" s="481"/>
+      <c r="J28" s="464"/>
+      <c r="K28" s="464"/>
+      <c r="L28" s="464"/>
+      <c r="M28" s="465"/>
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="235" t="s">
@@ -32299,11 +32299,11 @@
       <c r="E29" s="234">
         <v>110000</v>
       </c>
-      <c r="I29" s="473" t="s">
+      <c r="I29" s="460" t="s">
         <v>124</v>
       </c>
-      <c r="J29" s="473"/>
-      <c r="K29" s="474"/>
+      <c r="J29" s="460"/>
+      <c r="K29" s="461"/>
       <c r="L29" s="333">
         <v>213170</v>
       </c>
@@ -32353,11 +32353,11 @@
       <c r="E31" s="329">
         <v>104712</v>
       </c>
-      <c r="I31" s="485" t="s">
+      <c r="I31" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="J31" s="469"/>
-      <c r="K31" s="469"/>
+      <c r="J31" s="459"/>
+      <c r="K31" s="459"/>
       <c r="L31" s="332">
         <v>79500</v>
       </c>
@@ -32384,11 +32384,11 @@
       <c r="E32" s="234">
         <v>385590</v>
       </c>
-      <c r="I32" s="485" t="s">
+      <c r="I32" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="469"/>
-      <c r="K32" s="469"/>
+      <c r="J32" s="459"/>
+      <c r="K32" s="459"/>
       <c r="L32" s="332">
         <v>47500</v>
       </c>
@@ -32415,11 +32415,11 @@
       <c r="E33" s="329">
         <v>64717</v>
       </c>
-      <c r="I33" s="482" t="s">
+      <c r="I33" s="451" t="s">
         <v>148</v>
       </c>
-      <c r="J33" s="483"/>
-      <c r="K33" s="484"/>
+      <c r="J33" s="452"/>
+      <c r="K33" s="453"/>
       <c r="L33" s="332">
         <v>50000</v>
       </c>
@@ -32446,9 +32446,9 @@
       <c r="E34" s="329">
         <v>13500</v>
       </c>
-      <c r="I34" s="476"/>
-      <c r="J34" s="477"/>
-      <c r="K34" s="478"/>
+      <c r="I34" s="454"/>
+      <c r="J34" s="455"/>
+      <c r="K34" s="456"/>
       <c r="L34" s="332">
         <v>10000</v>
       </c>
@@ -32473,11 +32473,11 @@
       <c r="E35" s="374">
         <v>26100</v>
       </c>
-      <c r="I35" s="467" t="s">
+      <c r="I35" s="457" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="467"/>
-      <c r="K35" s="467"/>
+      <c r="J35" s="457"/>
+      <c r="K35" s="457"/>
       <c r="L35" s="331">
         <f>L29-L31-L32-L33-L34</f>
         <v>26170</v>
@@ -35177,11 +35177,16 @@
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I19:K19"/>
@@ -35190,16 +35195,11 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
